--- a/Git桌面-不放大文件/最近准备/文件/仿牛客社区章节总结.xlsx
+++ b/Git桌面-不放大文件/最近准备/文件/仿牛客社区章节总结.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Idea Projects\Git桌面-不放大文件\最近准备\文件\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEA Projects\Git桌面-不放大文件\最近准备\文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8790A2DA-CE39-4405-9181-3E7317042EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1418DAE3-70BA-4407-A8D3-FB9B3E91B00F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{6A395F7D-CBF1-4069-839E-40F7AAA61FE9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6A395F7D-CBF1-4069-839E-40F7AAA61FE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -263,26 +263,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -290,28 +305,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8A2AD7-CD6F-497E-A6E5-F73B62F45987}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -643,90 +643,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="85.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="85.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" ht="85.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
     </row>
     <row r="5" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4" ht="100.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="7" t="s">
         <v>21</v>
       </c>
     </row>
